--- a/Machine learning/DigitsRecognizer/output.xlsx
+++ b/Machine learning/DigitsRecognizer/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>model</t>
   </si>
@@ -46,10 +46,28 @@
     <t>LogisticRegression</t>
   </si>
   <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier</t>
+  </si>
+  <si>
     <t>LogisticRegression(C=100)</t>
   </si>
   <si>
+    <t>SVC(C=5, cache_size=1000, gamma=0.05)</t>
+  </si>
+  <si>
+    <t>KNeighborsClassifier(n_neighbors=3)</t>
+  </si>
+  <si>
     <t>{'C': 100, 'solver': 'lbfgs'}</t>
+  </si>
+  <si>
+    <t>{'C': 5, 'gamma': 0.05}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 3}</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +477,10 @@
         <v>0.9005709788011417</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0.9143197278911565</v>
@@ -471,7 +489,7 @@
         <v>263.3169934749603</v>
       </c>
       <c r="J2">
-        <v>0.9152380952380952</v>
+        <v>0.9242857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -479,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>29400</v>
@@ -491,19 +509,19 @@
         <v>0.9005709788011417</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>0.9143197278911565</v>
+        <v>0.981326530612245</v>
       </c>
       <c r="I3">
-        <v>263.3169934749603</v>
+        <v>3533.789527893066</v>
       </c>
       <c r="J3">
-        <v>0.9152380952380952</v>
+        <v>0.9819047619047619</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -511,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>29400</v>
@@ -523,51 +541,19 @@
         <v>0.9005709788011417</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>0.9143197278911565</v>
+        <v>0.9672789115646256</v>
       </c>
       <c r="I4">
-        <v>263.3169934749603</v>
+        <v>18.94172048568726</v>
       </c>
       <c r="J4">
-        <v>0.9152380952380952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>29400</v>
-      </c>
-      <c r="D5">
-        <v>87</v>
-      </c>
-      <c r="E5">
-        <v>0.9005709788011417</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>0.9143197278911565</v>
-      </c>
-      <c r="I5">
-        <v>263.3169934749603</v>
-      </c>
-      <c r="J5">
-        <v>0.9152380952380952</v>
+        <v>0.9705555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/Machine learning/DigitsRecognizer/output.xlsx
+++ b/Machine learning/DigitsRecognizer/output.xlsx
@@ -518,7 +518,7 @@
         <v>0.981326530612245</v>
       </c>
       <c r="I3">
-        <v>3533.789527893066</v>
+        <v>2749.29559135437</v>
       </c>
       <c r="J3">
         <v>0.9819047619047619</v>
@@ -550,7 +550,7 @@
         <v>0.9672789115646256</v>
       </c>
       <c r="I4">
-        <v>18.94172048568726</v>
+        <v>17.84076809883118</v>
       </c>
       <c r="J4">
         <v>0.9705555555555555</v>
